--- a/biology/Botanique/Arbre_remarquable/Arbre_remarquable.xlsx
+++ b/biology/Botanique/Arbre_remarquable/Arbre_remarquable.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un arbre remarquable est un arbre repéré pour diverses particularités. 
 Il relève donc d'un patrimoine par sa rareté, ses dimensions, sa position, son âge ou encore sa force symbolique. Le patrimoine en question est naturel, culturel, paysager, etc.
@@ -512,11 +524,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La raréfaction des surfaces occupées par les forêts primaires, le déboisement à des fins d’extension de pâturage ou de culture, la surexploitation qui conduit à des monocultures d’essences plus productives ou plus conformes aux besoins de l'économie du moment, la pollution destructrice, ont conduit l’homme à prendre conscience de la valeur patrimoniale particulière que peuvent représenter certains arbres. 
 Depuis longtemps, dans certaines cultures, des arbres plus grands ou plus gros que les autres sont réputés abriter les esprits d'ancêtres ou avoir des vertus particulières. D'autres sont appréciés pour leur ombre et peuvent abriter diverses cérémonies ou être un lieu de rencontre, de justice (« arbre à palabres », arbre de Saint-Louis…). Certains de ces arbres ont un nom qui parfois devient le nom du lieu-dit.
-Un peu partout, à l'initiative d'individus, d'associations[1],[2] ou de collectivités, des recensements et inventaires sont menés et certains arbres sont classés comme monument et bénéficient de soins et de protection.
+Un peu partout, à l'initiative d'individus, d'associations, ou de collectivités, des recensements et inventaires sont menés et certains arbres sont classés comme monument et bénéficient de soins et de protection.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Éléments de définition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Définir le caractère « remarquable » d’un arbre n’est pas aisé. Les critères varient selon les époques et les lieux ; ils sont multiples et subjectifs. En dehors des qualités incontestables qui rendent certains individus exceptionnels, comme la longévité ou les dimensions, bien d’autres paramètres peuvent entrer en compte.
 Un arbre qui peut paraître quelconque parmi ses semblables au milieu d’une forêt, sera remarqué isolé et servant de repère visuel au milieu d’un paysage ; planté au milieu d’une place de village il prendra une valeur symbolique et culturelle au voisinage des générations d’hommes qui le côtoieront ; seul de son essence dans une région, il sera distingué pour sa rareté, etc.
